--- a/Flower pollination algorithm/data.xlsx
+++ b/Flower pollination algorithm/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B807B-7614-1243-B1AE-0B8F56CD6C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6075C1-1BD1-4D48-B543-F3B600BBDA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="720" windowWidth="14180" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
   <si>
     <t>函数</t>
   </si>
@@ -55,9 +55,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>ASOC</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
@@ -140,13 +137,19 @@
   </si>
   <si>
     <t>F23</t>
+  </si>
+  <si>
+    <t>ACOR</t>
+  </si>
+  <si>
+    <t>用时</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +178,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,42 +232,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -250,22 +248,266 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -595,816 +837,1204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="7" width="10.83203125" style="5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>41.219261667197742</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1991.237477072717</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.4138418652313189</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2597.8610795278551</v>
+      </c>
+      <c r="G2" s="10">
+        <v>25.700908178985021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.42992206758612289</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5">
+        <v>68.335961199437847</v>
+      </c>
+      <c r="D3" s="5">
+        <v>31357.926127728351</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.2391660345628779</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4694.5560105887444</v>
+      </c>
+      <c r="G3" s="10">
+        <v>73.252820043662155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.8865501231898596</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5">
+        <v>57.536763166804562</v>
+      </c>
+      <c r="D4" s="5">
+        <v>18794.461010710991</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.7598637057014244</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3552.5542217190982</v>
+      </c>
+      <c r="G4" s="10">
+        <v>50.809822820064632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.58016167144659336</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5">
+        <v>8.2492006744591944</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11498.16245535634</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.24147361823345914</v>
+      </c>
+      <c r="F5" s="9">
+        <v>580.67762688286041</v>
+      </c>
+      <c r="G5" s="10">
+        <v>14.523590312769473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.521662425994873</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.8046466668446857</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.8190872987111408</v>
+      </c>
+      <c r="F6" s="9">
+        <v>40.126185353597002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.1844168980916345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.1109005487666075</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7.2432645626005483</v>
+      </c>
+      <c r="D7" s="5">
+        <v>36.922164318806267</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.299885115254257</v>
+      </c>
+      <c r="F7" s="9">
+        <v>52.321942671119423</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.208298152012834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>16.517175284451231</v>
+      </c>
+      <c r="D8" s="5">
+        <v>37811112805.014618</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.4387671509757589</v>
+      </c>
+      <c r="F8" s="9">
+        <v>69.900928614928134</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.7984594372376201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9.9156156601008263</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2827769946.8112736</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.9297969802897272</v>
+      </c>
+      <c r="F9" s="9">
+        <v>57.988152596239978</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.9549802280338648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.3573766360370039</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9747650945.0120296</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.38514984703691441</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5.7100656745291856</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.49814903268990812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.5366920153299968</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5.1703034400939938</v>
+      </c>
+      <c r="F11" s="9">
+        <v>40.559479212760927</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5.4095194975535073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1632.897732346242</v>
+      </c>
+      <c r="D12" s="5">
+        <v>25124.24157455135</v>
+      </c>
+      <c r="E12" s="6">
+        <v>135.8637189235875</v>
+      </c>
+      <c r="F12" s="9">
+        <v>57500.840470651798</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3322.6925001216532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.60534021217000877</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="C13" s="8">
+        <v>3260.1069753082352</v>
+      </c>
+      <c r="D13" s="5">
+        <v>107255.9849177313</v>
+      </c>
+      <c r="E13" s="6">
+        <v>679.379463815436</v>
+      </c>
+      <c r="F13" s="9">
+        <v>76080.127725067738</v>
+      </c>
+      <c r="G13" s="10">
+        <v>13064.313788870941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <v>1.883583507761454</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2" t="s">
+      <c r="C14" s="8">
+        <v>2758.26322677283</v>
+      </c>
+      <c r="D14" s="5">
+        <v>56040.532013796015</v>
+      </c>
+      <c r="E14" s="6">
+        <v>314.8146672161289</v>
+      </c>
+      <c r="F14" s="9">
+        <v>67263.566683392244</v>
+      </c>
+      <c r="G14" s="10">
+        <v>6921.0122193943062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.0364610367342071</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.27149919918672261</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="C15" s="8">
+        <v>465.83443974653068</v>
+      </c>
+      <c r="D15" s="5">
+        <v>26511.0408335707</v>
+      </c>
+      <c r="E15" s="6">
+        <v>144.3166402453987</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5008.8529689871257</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2267.3046488368977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.2654644807179771</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9.1169270674387608</v>
+      </c>
+      <c r="E16" s="6">
+        <v>15.81418620745341</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43.497775030136111</v>
+      </c>
+      <c r="G16" s="8">
+        <v>10.915286747614543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8">
+        <v>30.00079980319062</v>
+      </c>
+      <c r="D17" s="5">
+        <v>76.824241057882247</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.0894530682572512</v>
+      </c>
+      <c r="F17" s="9">
+        <v>75.640953302421678</v>
+      </c>
+      <c r="G17" s="10">
+        <v>7.0331963568464744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>205.90895965432699</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+      <c r="C18" s="8">
+        <v>38.026844256575657</v>
+      </c>
+      <c r="D18" s="5">
+        <v>89.409867246889775</v>
+      </c>
+      <c r="E18" s="6">
+        <v>19.190069784878251</v>
+      </c>
+      <c r="F18" s="9">
+        <v>86.545244830000826</v>
+      </c>
+      <c r="G18" s="10">
+        <v>10.56921097039319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
-        <v>442.57499375130169</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="C19" s="8">
+        <v>34.542500965865095</v>
+      </c>
+      <c r="D19" s="5">
+        <v>83.474060555890134</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9.5316688239368546</v>
+      </c>
+      <c r="F19" s="9">
+        <v>84.035609359523278</v>
+      </c>
+      <c r="G19" s="10">
+        <v>8.8690741555054835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <v>335.48801734950513</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>58.536485656085418</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="C20" s="8">
+        <v>2.2292599066837075</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.3549762604165769</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.4845660749927179</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.4682101584656149</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.1859941016623343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.1500801404317218</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.8631550629933677</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40.061875081062318</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5.1460822741190588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2392.2245783390058</v>
+      </c>
+      <c r="D22" s="5">
+        <v>370132.15702701698</v>
+      </c>
+      <c r="E22" s="9">
+        <v>115.01140938840329</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="10">
+        <v>1187.7924660483559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
+      <c r="C23" s="8">
+        <v>6437.3594715475328</v>
+      </c>
+      <c r="D23" s="5">
+        <v>160876224.81446981</v>
+      </c>
+      <c r="E23" s="9">
+        <v>963.2615053270539</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="10">
+        <v>4862.4116201301831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
+      <c r="C24" s="8">
+        <v>4260.8923307358318</v>
+      </c>
+      <c r="D24" s="5">
+        <v>59534354.066161782</v>
+      </c>
+      <c r="E24" s="9">
+        <v>265.87856342442984</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="10">
+        <v>2637.2222339394948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="C25" s="8">
+        <v>1013.0153533325167</v>
+      </c>
+      <c r="D25" s="5">
+        <v>56233773.524603128</v>
+      </c>
+      <c r="E25" s="9">
+        <v>228.50711468288659</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="10">
+        <v>1119.3116525009984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.7351948420206706</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.7366669019063314</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5.9067193984985353</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8">
+        <v>5.7219397226969404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45.091510797374902</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2904.9230982843528</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.4064918118976859</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="10">
+        <v>47.838297392754328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+      <c r="C28" s="8">
+        <v>73.424160979900819</v>
+      </c>
+      <c r="D28" s="5">
+        <v>73678.131869746663</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2.8655175161963111</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="10">
+        <v>84.602527439964987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
+      <c r="C29" s="8">
+        <v>56.287631337952412</v>
+      </c>
+      <c r="D29" s="5">
+        <v>22084.952443074682</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1.9066091740461166</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="10">
+        <v>61.844183694575818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="C30" s="8">
+        <v>9.2554315785257018</v>
+      </c>
+      <c r="D30" s="5">
+        <v>17704.610082652285</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.37731866165264955</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="10">
+        <v>11.789224144460805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.5585110346476236</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3.4005997498830158</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4.9330140272776282</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8">
+        <v>5.4546106179555256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.47960312121953841</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.42579038565349958</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.18900595886392449</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="10">
+        <v>7.4657004500178592E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
+      <c r="C33" s="5">
+        <v>0.77841550801085757</v>
+      </c>
+      <c r="D33" s="5">
+        <v>118.9104379845859</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.5917468122870625</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="10">
+        <v>0.1696414403178069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
+      <c r="C34" s="5">
+        <v>0.63978624495426117</v>
+      </c>
+      <c r="D34" s="5">
+        <v>28.5437529771329</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.33726194444965413</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="10">
+        <v>0.10160672960321843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="C35" s="5">
+        <v>8.2600188396103905E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>33.056045379337519</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.10198234492923104</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="10">
+        <v>2.7392965351226411E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.6135326544443767</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.5235250473022459</v>
+      </c>
+      <c r="E36" s="9">
+        <v>5.0620953241984052</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8">
+        <v>6.0879555702209469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>-10736.20214191854</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="10">
+        <v>-12532.336927587579</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5">
+        <v>-10138.800630327891</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="10">
+        <v>-12477.138802416001</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5">
+        <v>-10441.418762929517</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="10">
+        <v>-12504.231698696598</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5">
+        <v>190.17651345624131</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="10">
+        <v>17.363973646588011</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5">
+        <v>7.8353701432545977</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="8">
+        <v>2.2880114714304605</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>28.485540001473002</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="10">
+        <v>1.4789273482741689</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>35.140787334120937</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="10">
+        <v>4.5626719920944083</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5">
+        <v>32.320148960521557</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="10">
+        <v>2.8417985817540927</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8"/>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.9168222953315532</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="10">
+        <v>0.83656032640828859</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5">
+        <v>7.9986858367919922</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="8">
+        <v>11.406019751230875</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="A47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3.2060289277313001</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="G47" s="10">
+        <v>1.8063615088849161</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="4"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6.4004091717055971</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="G48" s="10">
+        <v>2.6542235492407582</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8"/>
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="4"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>4.0980513863145518</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="10">
+        <v>2.3444773460536292</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.99889323924195628</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="10">
+        <v>0.21087752969675241</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8.946209828058878</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="8">
+        <v>12.299653784434003</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="4"/>
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2.1035062025553941E-8</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="G52" s="10">
+        <v>1.121252790457832</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
-      <c r="B53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.2181014807932661E-7</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="10">
+        <v>1.379287519212639</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="4"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4.4685610471143868E-8</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="10">
+        <v>1.2597858776852797</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.0350867954975754E-8</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="10">
+        <v>7.7242566353715583E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="5">
+        <v>8.2751951535542805</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="8">
+        <v>11.964869785308839</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1.1886273529296309E-2</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="5">
+        <v>0.19785423602276361</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="7"/>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="5">
+        <v>8.804876490452071E-2</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="5">
+        <v>5.9587834976044307E-2</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8"/>
-      <c r="B61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="4"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="5">
+        <v>11.67039771080017</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="A62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2.946791711016957</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="7"/>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="4"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>13.75221223639455</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="7"/>
-      <c r="B64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="4"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="5">
+        <v>7.0583783295540927</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="4"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2.5134772326941319</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="4"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5">
+        <v>11.326757891972859</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="7"/>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
+      <c r="A67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1413,9 +2043,9 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="7"/>
-      <c r="B68" s="2" t="s">
-        <v>10</v>
+      <c r="A68" s="3"/>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1424,9 +2054,9 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2" t="s">
-        <v>11</v>
+      <c r="A69" s="3"/>
+      <c r="B69" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1435,11 +2065,9 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>8</v>
+      <c r="A70" s="3"/>
+      <c r="B70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1448,9 +2076,9 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="7"/>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
+      <c r="A71" s="3"/>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1459,9 +2087,11 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="7"/>
-      <c r="B72" s="2" t="s">
-        <v>10</v>
+      <c r="A72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1470,9 +2100,9 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="8"/>
-      <c r="B73" s="2" t="s">
-        <v>11</v>
+      <c r="A73" s="3"/>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1481,11 +2111,9 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>8</v>
+      <c r="A74" s="3"/>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1494,9 +2122,9 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="7"/>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
+      <c r="A75" s="3"/>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1505,9 +2133,9 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="7"/>
-      <c r="B76" s="2" t="s">
-        <v>10</v>
+      <c r="A76" s="3"/>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1516,9 +2144,11 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2" t="s">
-        <v>11</v>
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1527,10 +2157,8 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="3"/>
+      <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="4"/>
@@ -1540,8 +2168,8 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="7"/>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="3"/>
+      <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="4"/>
@@ -1551,8 +2179,8 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="7"/>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="3"/>
+      <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="4"/>
@@ -1562,9 +2190,9 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="8"/>
-      <c r="B81" s="2" t="s">
-        <v>11</v>
+      <c r="A81" s="3"/>
+      <c r="B81" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1573,11 +2201,11 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>8</v>
+      <c r="A82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1586,9 +2214,9 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="7"/>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
+      <c r="A83" s="3"/>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -1597,9 +2225,9 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="7"/>
-      <c r="B84" s="2" t="s">
-        <v>10</v>
+      <c r="A84" s="3"/>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -1608,9 +2236,9 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="8"/>
-      <c r="B85" s="2" t="s">
-        <v>11</v>
+      <c r="A85" s="3"/>
+      <c r="B85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1619,11 +2247,9 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>8</v>
+      <c r="A86" s="3"/>
+      <c r="B86" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -1632,9 +2258,11 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="7"/>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
+      <c r="A87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -1643,9 +2271,9 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="7"/>
-      <c r="B88" s="2" t="s">
-        <v>10</v>
+      <c r="A88" s="3"/>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1654,9 +2282,9 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="8"/>
-      <c r="B89" s="2" t="s">
-        <v>11</v>
+      <c r="A89" s="3"/>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -1665,11 +2293,9 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>8</v>
+      <c r="A90" s="3"/>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -1678,9 +2304,9 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="7"/>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
+      <c r="A91" s="3"/>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -1689,9 +2315,11 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="7"/>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
+      <c r="A92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -1700,9 +2328,9 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="8"/>
-      <c r="B93" s="2" t="s">
-        <v>11</v>
+      <c r="A93" s="3"/>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -1711,142 +2339,291 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="3:7">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="3:7">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="3:7">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="3:7">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="3:7">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="3:7">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="3:7">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="3:7">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="3:7">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="3:7">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="3:7">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="3:7">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="3:7">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3"/>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3"/>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3"/>
+      <c r="B100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3"/>
+      <c r="B101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3"/>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3"/>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3"/>
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3"/>
+      <c r="B106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3"/>
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3"/>
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3"/>
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3"/>
+      <c r="B111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3"/>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3"/>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3"/>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3"/>
+      <c r="B116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flower pollination algorithm/data.xlsx
+++ b/Flower pollination algorithm/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6075C1-1BD1-4D48-B543-F3B600BBDA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A499F078-A872-4744-BCF0-DA67C937306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="720" windowWidth="14180" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1120" windowWidth="24780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,26 +249,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,238 +280,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -839,8 +612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -869,1738 +643,2095 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>41.219261667197742</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1991.237477072717</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>1.4138418652313189</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>2597.8610795278551</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>25.700908178985021</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>68.335961199437847</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>31357.926127728351</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>2.2391660345628779</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>4694.5560105887444</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>73.252820043662155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>57.536763166804562</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>18794.461010710991</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>1.7598637057014244</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>3552.5542217190982</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>50.809822820064632</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>8.2492006744591944</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>11498.16245535634</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.24147361823345914</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>580.67762688286041</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>14.523590312769473</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.521662425994873</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3.8046466668446857</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>4.8190872987111408</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>40.126185353597002</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>5.1844168980916345</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>7.2432645626005483</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>36.922164318806267</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2.299885115254257</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>52.321942671119423</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>1.208298152012834</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>16.517175284451231</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>37811112805.014618</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3.4387671509757589</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>69.900928614928134</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>2.7984594372376201</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>9.9156156601008263</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2827769946.8112736</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>2.9297969802897272</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>57.988152596239978</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>1.9549802280338648</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.3573766360370039</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>9747650945.0120296</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.38514984703691441</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>5.7100656745291856</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>0.49814903268990812</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1.59</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3.5366920153299968</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>5.1703034400939938</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>40.559479212760927</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>5.4095194975535073</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>1632.897732346242</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>25124.24157455135</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>135.8637189235875</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>57500.840470651798</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>3322.6925001216532</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>3260.1069753082352</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>107255.9849177313</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>679.379463815436</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>76080.127725067738</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>13064.313788870941</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>2758.26322677283</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>56040.532013796015</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>314.8146672161289</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>67263.566683392244</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>6921.0122193943062</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>465.83443974653068</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>26511.0408335707</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>144.3166402453987</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>5008.8529689871257</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>2267.3046488368977</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>4.2654644807179771</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>9.1169270674387608</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>15.81418620745341</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>43.497775030136111</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>10.915286747614543</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>30.00079980319062</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>76.824241057882247</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>2.0894530682572512</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>75.640953302421678</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>7.0331963568464744</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>38.026844256575657</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>89.409867246889775</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>19.190069784878251</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>86.545244830000826</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>10.56921097039319</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>34.542500965865095</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>83.474060555890134</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>9.5316688239368546</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>84.035609359523278</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>8.8690741555054835</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>2.2292599066837075</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>4.3549762604165769</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>5.4845660749927179</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>3.4682101584656149</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <v>1.1859941016623343</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>1.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>3.1500801404317218</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>4.8631550629933677</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>40.061875081062318</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>5.1460822741190588</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>2392.2245783390058</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>370132.15702701698</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>115.01140938840329</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10">
+      <c r="F22" s="9">
+        <v>115.01140938840329</v>
+      </c>
+      <c r="G22" s="7">
         <v>1187.7924660483559</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>6437.3594715475328</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>160876224.81446981</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>963.2615053270539</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="10">
+      <c r="F23" s="9">
+        <v>963.2615053270539</v>
+      </c>
+      <c r="G23" s="7">
         <v>4862.4116201301831</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>4260.8923307358318</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>59534354.066161782</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>265.87856342442984</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="10">
+      <c r="F24" s="9">
+        <v>265.87856342442984</v>
+      </c>
+      <c r="G24" s="7">
         <v>2637.2222339394948</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>1013.0153533325167</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>56233773.524603128</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>228.50711468288659</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="10">
+      <c r="F25" s="9">
+        <v>228.50711468288659</v>
+      </c>
+      <c r="G25" s="7">
         <v>1119.3116525009984</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>1.7351948420206706</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>3.7366669019063314</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>5.9067193984985353</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="8">
+      <c r="F26" s="9">
+        <v>5.9067193984985353</v>
+      </c>
+      <c r="G26" s="6">
         <v>5.7219397226969404</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>45.091510797374902</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>2904.9230982843528</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>1.4064918118976859</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="10">
+      <c r="F27" s="9">
+        <v>1.4064918118976859</v>
+      </c>
+      <c r="G27" s="7">
         <v>47.838297392754328</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>73.424160979900819</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>73678.131869746663</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>2.8655175161963111</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="10">
+      <c r="F28" s="9">
+        <v>2.8655175161963111</v>
+      </c>
+      <c r="G28" s="7">
         <v>84.602527439964987</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>56.287631337952412</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>22084.952443074682</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>1.9066091740461166</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="10">
+      <c r="F29" s="9">
+        <v>1.9066091740461166</v>
+      </c>
+      <c r="G29" s="7">
         <v>61.844183694575818</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>9.2554315785257018</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>17704.610082652285</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>0.37731866165264955</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="10">
+      <c r="F30" s="9">
+        <v>0.37731866165264955</v>
+      </c>
+      <c r="G30" s="7">
         <v>11.789224144460805</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>1.5585110346476236</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>3.4005997498830158</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>4.9330140272776282</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8">
+      <c r="F31" s="9">
+        <v>4.9330140272776282</v>
+      </c>
+      <c r="G31" s="6">
         <v>5.4546106179555256</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.47960312121953841</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.42579038565349958</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>0.18900595886392449</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="10">
+      <c r="F32" s="9">
+        <v>0.18900595886392449</v>
+      </c>
+      <c r="G32" s="7">
         <v>7.4657004500178592E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0.77841550801085757</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>118.9104379845859</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>0.5917468122870625</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="10">
+      <c r="F33" s="9">
+        <v>0.5917468122870625</v>
+      </c>
+      <c r="G33" s="7">
         <v>0.1696414403178069</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0.63978624495426117</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>28.5437529771329</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>0.33726194444965413</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="10">
+      <c r="F34" s="9">
+        <v>0.33726194444965413</v>
+      </c>
+      <c r="G34" s="7">
         <v>0.10160672960321843</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>8.2600188396103905E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>33.056045379337519</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>0.10198234492923104</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="10">
+      <c r="F35" s="9">
+        <v>0.10198234492923104</v>
+      </c>
+      <c r="G35" s="7">
         <v>2.7392965351226411E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>1.6135326544443767</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>3.5235250473022459</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>5.0620953241984052</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="8">
+      <c r="F36" s="9">
+        <v>5.0620953241984052</v>
+      </c>
+      <c r="G36" s="6">
         <v>6.0879555702209469</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>-10736.20214191854</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="10">
+      <c r="D37" s="9">
+        <v>-6397.9172821482762</v>
+      </c>
+      <c r="E37" s="9">
+        <v>-8382.3273446704807</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="7">
         <v>-12532.336927587579</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>-10138.800630327891</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="10">
+      <c r="D38" s="9">
+        <v>-2400.7621900197032</v>
+      </c>
+      <c r="E38" s="9">
+        <v>-6329.4983522165821</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="7">
         <v>-12477.138802416001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>-10441.418762929517</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="10">
+      <c r="D39" s="9">
+        <v>-4363.3717865112731</v>
+      </c>
+      <c r="E39" s="9">
+        <v>-7316.9032275121981</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="7">
         <v>-12504.231698696598</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>190.17651345624131</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="10">
+      <c r="D40" s="9">
+        <v>1211.6704604540553</v>
+      </c>
+      <c r="E40" s="9">
+        <v>708.76057759151456</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="7">
         <v>17.363973646588011</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>7.8353701432545977</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="8">
+      <c r="D41" s="11">
+        <v>17.229557387034099</v>
+      </c>
+      <c r="E41" s="9">
+        <v>25.581743415196737</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="6">
         <v>2.2880114714304605</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>28.485540001473002</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="10">
+      <c r="D42" s="9">
+        <v>212.55887282470391</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1.9118655934747151</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="7">
         <v>1.4789273482741689</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>35.140787334120937</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="10">
+      <c r="D43" s="9">
+        <v>433.76994755771329</v>
+      </c>
+      <c r="E43" s="9">
+        <v>6.0653733279477819</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="7">
         <v>4.5626719920944083</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>32.320148960521557</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="10">
+      <c r="D44" s="9">
+        <v>321.40559631092606</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4.3412884429127647</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="7">
         <v>2.8417985817540927</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>1.9168222953315532</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="10">
+      <c r="D45" s="9">
+        <v>69.236534855659315</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1.4536977568634817</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="7">
         <v>0.83656032640828859</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>7.9986858367919922</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="8">
+      <c r="D46" s="11">
+        <v>16.891468413670857</v>
+      </c>
+      <c r="E46" s="9">
+        <v>25.277656618754069</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="6">
         <v>11.406019751230875</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>3.2060289277313001</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="10">
+      <c r="D47" s="9">
+        <v>19.955492031543049</v>
+      </c>
+      <c r="E47" s="9">
+        <v>6.4119749658541725E-2</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="7">
         <v>1.8063615088849161</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>6.4004091717055971</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="10">
+      <c r="D48" s="9">
+        <v>19.966768854536522</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2.108523092124206</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="7">
         <v>2.6542235492407582</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>4.0980513863145518</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="10">
+      <c r="D49" s="9">
+        <v>19.962694609200259</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.26020999883003409</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="7">
         <v>2.3444773460536292</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>0.99889323924195628</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="10">
+      <c r="D50" s="9">
+        <v>3.0742694357376336E-3</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.52183362666003696</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="7">
         <v>0.21087752969675241</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>8.946209828058878</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="8">
+      <c r="D51" s="11">
+        <v>18.485080862045287</v>
+      </c>
+      <c r="E51" s="9">
+        <v>29.255553627014159</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="6">
         <v>12.299653784434003</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>2.1035062025553941E-8</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10">
+      <c r="D52" s="9">
+        <v>24.09834757003042</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="7">
         <v>1.121252790457832</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>1.2181014807932661E-7</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="10">
+      <c r="D53" s="9">
+        <v>376.06377965693412</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="7">
         <v>1.379287519212639</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>4.4685610471143868E-8</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="10">
+      <c r="D54" s="9">
+        <v>189.83159433843861</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="7">
         <v>1.2597858776852797</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="3"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>3.0350867954975754E-8</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="10">
+      <c r="D55" s="9">
+        <v>107.61421020114599</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="7">
         <v>7.7242566353715583E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>8.2751951535542805</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="8">
+      <c r="D56" s="11">
+        <v>17.943318303426107</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="6">
         <v>11.964869785308839</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>1.1886273529296309E-2</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="D57" s="9">
+        <v>14.26409143888354</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="12">
+        <v>5.0457046707090489E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>0.19785423602276361</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="D58" s="9">
+        <v>676932179.49057579</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="12">
+        <v>0.27173299706205678</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>8.804876490452071E-2</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="D59" s="9">
+        <v>186471609.2443586</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="12">
+        <v>0.11490907706523429</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>5.9587834976044307E-2</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="D60" s="9">
+        <v>239340824.83200327</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="12">
+        <v>5.7949491850564173E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>11.67039771080017</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="D61" s="11">
+        <v>26.493236684799193</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="9">
+        <v>15.044294293721515</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>2.946791711016957</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="D62" s="9">
+        <v>393.79868819843449</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="12">
+        <v>5.2783654178146823E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>13.75221223639455</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="D63" s="9">
+        <v>1817.2787521938201</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="12">
+        <v>0.22875319264875049</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>7.0583783295540927</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="D64" s="9">
+        <v>736.33776064738163</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="12">
+        <v>0.13524579961405833</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>2.5134772326941319</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="D65" s="9">
+        <v>336.07820901934519</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="12">
+        <v>5.3559046213987639E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>11.326757891972859</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="D66" s="11">
+        <v>24.908014440536498</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="9">
+        <v>14.272566906611127</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="C67" s="9">
+        <v>0.99800383779444979</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.99809359294458389</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="12">
+        <v>0.99800383779859569</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="C68" s="9">
+        <v>0.99800383779444979</v>
+      </c>
+      <c r="D68" s="9">
+        <v>20.333157671091339</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="12">
+        <v>0.99800384012588561</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="C69" s="9">
+        <v>0.99800383779444968</v>
+      </c>
+      <c r="D69" s="9">
+        <v>3.5349858053300673</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="12">
+        <v>0.99800383842506202</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="3"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="C70" s="9">
+        <v>1.1491900087240784E-16</v>
+      </c>
+      <c r="D70" s="9">
+        <v>4.9646979707649743</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="12">
+        <v>6.3205593905831629E-10</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="3"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="C71" s="11">
+        <v>15.861744260787964</v>
+      </c>
+      <c r="D71" s="11">
+        <v>34.652818632125857</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="9">
+        <v>18.04747174580892</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="C72" s="9">
+        <v>3.0748598780654118E-4</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="12">
+        <v>7.3720349957040075E-4</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="C73" s="9">
+        <v>3.0748598907113389E-4</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="12">
+        <v>2.0455593816561479E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="C74" s="9">
+        <v>3.0748598809328458E-4</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="12">
+        <v>2.9413726924157595E-3</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="3"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="C75" s="9">
+        <v>4.0341366698479596E-13</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="12">
+        <v>4.8766514007445496E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="3"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="C76" s="11">
+        <v>5.2884393056233723</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="9">
+        <v>7.4608524640401201</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="C77" s="9">
+        <v>-1.0316284534898781</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="12">
+        <v>-1.0316275932333701</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="C78" s="9">
+        <v>-1.0316284534898781</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="12">
+        <v>-1.0314907517168881</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="C79" s="9">
+        <v>-1.0316284534898781</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="12">
+        <v>-1.0316012130157048</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="C80" s="9">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="12">
+        <v>3.7769190191714913E-5</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="C81" s="11">
+        <v>4.1293306986490883</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="9">
+        <v>6.3987393538157145</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="C82" s="9">
+        <v>0.39788735772973821</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="12">
+        <v>0.39788756291054561</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="3"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="C83" s="9">
+        <v>0.39788735772973821</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="12">
+        <v>0.39793731275420008</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="3"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="C84" s="9">
+        <v>0.39788735772973821</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="12">
+        <v>0.39790104370218521</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="C85" s="9">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="12">
+        <v>1.7889171673090898E-5</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="C86" s="11">
+        <v>4.2193589051564535</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="9">
+        <v>6.403632148106893</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="C87" s="9">
+        <v>2.9999999999999218</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="12">
+        <v>3.0000023921144341</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="3"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="C88" s="9">
+        <v>2.9999999999999232</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="12">
+        <v>3.000664125355756</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="3"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="C89" s="9">
+        <v>2.9999999999999218</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="12">
+        <v>3.000154541507956</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="3"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="C90" s="9">
+        <v>3.5606350123330496E-16</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="12">
+        <v>1.7535202518317581E-4</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="3"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="C91" s="11">
+        <v>4.3392016092936201</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="9">
+        <v>6.5421496073404946</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="C92" s="9">
+        <v>-3.8627821478207558</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="12">
+        <v>-3.862782091435299</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="3"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="C93" s="9">
+        <v>-3.8627821478207558</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="12">
+        <v>-3.862779707001085</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="3"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="C94" s="9">
+        <v>-3.862782147820754</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="12">
+        <v>-3.8627813891652214</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="3"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="C95" s="9">
+        <v>1.8387040139585255E-15</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="12">
+        <v>7.7606822531421228E-7</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="3"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="C96" s="11">
+        <v>6.2801953951517744</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="9">
+        <v>8.3715076923370368</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="C97" s="9">
+        <v>-3.3220206172329818</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="12">
+        <v>-3.3220202713079252</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="3"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="C98" s="9">
+        <v>-3.322020617232909</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="12">
+        <v>-3.2030972283678958</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="3"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="C99" s="9">
+        <v>-3.322020617232968</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="12">
+        <v>-3.2903062830327965</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="3"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="C100" s="9">
+        <v>1.9029698260931026E-14</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="12">
+        <v>5.4433413772436344E-2</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="3"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="C101" s="11">
+        <v>6.4454766114552813</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="9">
+        <v>8.5331263542175293</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="C102" s="9">
+        <v>-10.153199679058231</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="12">
+        <v>-10.152889071313171</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="3"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="C103" s="9">
+        <v>-10.153199679058231</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="12">
+        <v>-2.6304081189933561</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="3"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="C104" s="9">
+        <v>-10.153199679058229</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="12">
+        <v>-3.983730387266716</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="3"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="C105" s="9">
+        <v>1.8387040139585255E-15</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="12">
+        <v>2.6446737300687606</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="3"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="C106" s="11">
+        <v>6.905402167638143</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="9">
+        <v>9.0868903319040939</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="C107" s="9">
+        <v>-10.402940566818661</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="12">
+        <v>-10.40250960959041</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="3"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="C108" s="9">
+        <v>-10.402940566818639</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="12">
+        <v>-1.8375787060071529</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="3"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="C109" s="9">
+        <v>-10.402940566818661</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="12">
+        <v>-4.1954804808398736</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="3"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="C110" s="9">
+        <v>5.6970160197328794E-15</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="12">
+        <v>2.6297216751234536</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="3"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="C111" s="11">
+        <v>7.8499813238779703</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="9">
+        <v>9.9091487725575771</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="C112" s="9">
+        <v>-10.53640981669205</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="12">
+        <v>-10.536239725150191</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="3"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="C113" s="9">
+        <v>-10.53640981669168</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="12">
+        <v>-2.427297399575306</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="3"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="C114" s="9">
+        <v>-10.536409816692014</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="12">
+        <v>-4.8716770016802888</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="3"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="C115" s="9">
+        <v>9.2106653199303816E-14</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="12">
+        <v>3.0313069269683712</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="3"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="C116" s="11">
+        <v>9.2027308622996014</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="9">
+        <v>11.324762837092083</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="A107:A111"/>
@@ -2617,13 +2748,6 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flower pollination algorithm/data.xlsx
+++ b/Flower pollination algorithm/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A499F078-A872-4744-BCF0-DA67C937306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A648F-38C5-5D46-8BB9-1C8380791988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1120" windowWidth="24780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,19 +263,17 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -613,8 +611,8 @@
   <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -643,7 +641,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -666,7 +664,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -687,7 +685,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,7 +706,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,7 +727,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -750,7 +748,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -773,7 +771,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -794,7 +792,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,7 +813,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,7 +834,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -857,7 +855,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -880,7 +878,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +899,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,7 +920,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,7 +941,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -964,7 +962,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -987,7 +985,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1006,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1027,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1048,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1071,7 +1069,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1086,7 +1084,7 @@
       <c r="E22" s="6">
         <v>115.01140938840329</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>115.01140938840329</v>
       </c>
       <c r="G22" s="7">
@@ -1094,7 +1092,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1105,7 @@
       <c r="E23" s="6">
         <v>963.2615053270539</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>963.2615053270539</v>
       </c>
       <c r="G23" s="7">
@@ -1115,7 +1113,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1126,7 @@
       <c r="E24" s="6">
         <v>265.87856342442984</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>265.87856342442984</v>
       </c>
       <c r="G24" s="7">
@@ -1136,7 +1134,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1147,7 @@
       <c r="E25" s="6">
         <v>228.50711468288659</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>228.50711468288659</v>
       </c>
       <c r="G25" s="7">
@@ -1157,7 +1155,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1170,7 +1168,7 @@
       <c r="E26" s="6">
         <v>5.9067193984985353</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>5.9067193984985353</v>
       </c>
       <c r="G26" s="6">
@@ -1178,7 +1176,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1193,7 +1191,7 @@
       <c r="E27" s="6">
         <v>1.4064918118976859</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>1.4064918118976859</v>
       </c>
       <c r="G27" s="7">
@@ -1201,7 +1199,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1212,7 @@
       <c r="E28" s="6">
         <v>2.8655175161963111</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>2.8655175161963111</v>
       </c>
       <c r="G28" s="7">
@@ -1222,7 +1220,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1233,7 @@
       <c r="E29" s="6">
         <v>1.9066091740461166</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>1.9066091740461166</v>
       </c>
       <c r="G29" s="7">
@@ -1243,7 +1241,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1254,7 @@
       <c r="E30" s="6">
         <v>0.37731866165264955</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>0.37731866165264955</v>
       </c>
       <c r="G30" s="7">
@@ -1264,7 +1262,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1277,7 +1275,7 @@
       <c r="E31" s="6">
         <v>4.9330140272776282</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>4.9330140272776282</v>
       </c>
       <c r="G31" s="6">
@@ -1285,7 +1283,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1300,7 +1298,7 @@
       <c r="E32" s="6">
         <v>0.18900595886392449</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>0.18900595886392449</v>
       </c>
       <c r="G32" s="7">
@@ -1308,7 +1306,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1319,7 @@
       <c r="E33" s="6">
         <v>0.5917468122870625</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>0.5917468122870625</v>
       </c>
       <c r="G33" s="7">
@@ -1329,7 +1327,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1340,7 @@
       <c r="E34" s="6">
         <v>0.33726194444965413</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>0.33726194444965413</v>
       </c>
       <c r="G34" s="7">
@@ -1350,7 +1348,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1361,7 @@
       <c r="E35" s="6">
         <v>0.10198234492923104</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="6">
         <v>0.10198234492923104</v>
       </c>
       <c r="G35" s="7">
@@ -1371,7 +1369,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1382,7 @@
       <c r="E36" s="6">
         <v>5.0620953241984052</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="6">
         <v>5.0620953241984052</v>
       </c>
       <c r="G36" s="6">
@@ -1392,7 +1390,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1401,95 +1399,95 @@
       <c r="C37" s="4">
         <v>-10736.20214191854</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="6">
         <v>-6397.9172821482762</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>-8382.3273446704807</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="7">
         <v>-12532.336927587579</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="4">
         <v>-10138.800630327891</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="6">
         <v>-2400.7621900197032</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>-6329.4983522165821</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="7">
         <v>-12477.138802416001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="4">
         <v>-10441.418762929517</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <v>-4363.3717865112731</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="6">
         <v>-7316.9032275121981</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="7">
         <v>-12504.231698696598</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="4">
         <v>190.17651345624131</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>1211.6704604540553</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <v>708.76057759151456</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="7">
         <v>17.363973646588011</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="4">
         <v>7.8353701432545977</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>17.229557387034099</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>25.581743415196737</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="6">
         <v>2.2880114714304605</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1498,95 +1496,95 @@
       <c r="C42" s="4">
         <v>28.485540001473002</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="6">
         <v>212.55887282470391</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="6">
         <v>1.9118655934747151</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="7">
         <v>1.4789273482741689</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="4">
         <v>35.140787334120937</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <v>433.76994755771329</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="6">
         <v>6.0653733279477819</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="7">
         <v>4.5626719920944083</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="4">
         <v>32.320148960521557</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <v>321.40559631092606</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="6">
         <v>4.3412884429127647</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="7">
         <v>2.8417985817540927</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4">
         <v>1.9168222953315532</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="6">
         <v>69.236534855659315</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="6">
         <v>1.4536977568634817</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="7">
         <v>0.83656032640828859</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="4">
         <v>7.9986858367919922</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>16.891468413670857</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <v>25.277656618754069</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="6">
         <v>11.406019751230875</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1595,95 +1593,95 @@
       <c r="C47" s="4">
         <v>3.2060289277313001</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="6">
         <v>19.955492031543049</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="6">
         <v>6.4119749658541725E-2</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="7">
         <v>1.8063615088849161</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="4">
         <v>6.4004091717055971</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="6">
         <v>19.966768854536522</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="6">
         <v>2.108523092124206</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="7">
         <v>2.6542235492407582</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="4">
         <v>4.0980513863145518</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <v>19.962694609200259</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>0.26020999883003409</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="7">
         <v>2.3444773460536292</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="8"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="4">
         <v>0.99889323924195628</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="6">
         <v>3.0742694357376336E-3</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="6">
         <v>0.52183362666003696</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="7">
         <v>0.21087752969675241</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="4">
         <v>8.946209828058878</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>18.485080862045287</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <v>29.255553627014159</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="6">
         <v>12.299653784434003</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1692,85 +1690,95 @@
       <c r="C52" s="4">
         <v>2.1035062025553941E-8</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="6">
         <v>24.09834757003042</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="11">
+        <v>2.966255176753418E-3</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="7">
         <v>1.121252790457832</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="4">
         <v>1.2181014807932661E-7</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="6">
         <v>376.06377965693412</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="11">
+        <v>2.6970588975240739E-2</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="7">
         <v>1.379287519212639</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="4">
         <v>4.4685610471143868E-8</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="6">
         <v>189.83159433843861</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="11">
+        <v>1.2650465660028868E-2</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="7">
         <v>1.2597858776852797</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4">
         <v>3.0350867954975754E-8</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="6">
         <v>107.61421020114599</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="11">
+        <v>8.1995086446737704E-3</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="7">
         <v>7.7242566353715583E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="4">
         <v>8.2751951535542805</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>17.943318303426107</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="11">
+        <v>27.482762098312378</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="6">
         <v>11.964869785308839</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1779,85 +1787,95 @@
       <c r="C57" s="4">
         <v>1.1886273529296309E-2</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="6">
         <v>14.26409143888354</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="11">
+        <v>3.6950283167572711E-4</v>
+      </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="12">
+      <c r="G57" s="7">
         <v>5.0457046707090489E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="4">
         <v>0.19785423602276361</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="6">
         <v>676932179.49057579</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="11">
+        <v>4.925034179359173</v>
+      </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="12">
+      <c r="G58" s="7">
         <v>0.27173299706205678</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="4">
         <v>8.804876490452071E-2</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="6">
         <v>186471609.2443586</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="11">
+        <v>0.98819174914112173</v>
+      </c>
       <c r="F59" s="3"/>
-      <c r="G59" s="12">
+      <c r="G59" s="7">
         <v>0.11490907706523429</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="8"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="4">
         <v>5.9587834976044307E-2</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="6">
         <v>239340824.83200327</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="11">
+        <v>1.6320181700982821</v>
+      </c>
       <c r="F60" s="3"/>
-      <c r="G60" s="12">
+      <c r="G60" s="7">
         <v>5.7949491850564173E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="4">
         <v>11.67039771080017</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="9">
         <v>26.493236684799193</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="11">
+        <v>40.540782419840497</v>
+      </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="9">
+      <c r="G61" s="6">
         <v>15.044294293721515</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1866,872 +1884,965 @@
       <c r="C62" s="4">
         <v>2.946791711016957</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="6">
         <v>393.79868819843449</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="11">
+        <v>5.5419321741544516E-4</v>
+      </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="12">
+      <c r="G62" s="7">
         <v>5.2783654178146823E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="4">
         <v>13.75221223639455</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="6">
         <v>1817.2787521938201</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="11">
+        <v>3.3293865983430588E-3</v>
+      </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="12">
+      <c r="G63" s="7">
         <v>0.22875319264875049</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="8"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="4">
         <v>7.0583783295540927</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="6">
         <v>736.33776064738163</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="11">
+        <v>1.6995275238840537E-3</v>
+      </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="12">
+      <c r="G64" s="7">
         <v>0.13524579961405833</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="8"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="4">
         <v>2.5134772326941319</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="6">
         <v>336.07820901934519</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="11">
+        <v>8.5335585580678045E-4</v>
+      </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="12">
+      <c r="G65" s="7">
         <v>5.3559046213987639E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="8"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
         <v>11.326757891972859</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="9">
         <v>24.908014440536498</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="11">
+        <v>37.77038629849752</v>
+      </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="9">
+      <c r="G66" s="6">
         <v>14.272566906611127</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="6">
         <v>0.99800383779444979</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="6">
         <v>0.99809359294458389</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="12">
+      <c r="G67" s="7">
         <v>0.99800383779859569</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="8"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="6">
         <v>0.99800383779444979</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="6">
         <v>20.333157671091339</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="12">
+      <c r="G68" s="7">
         <v>0.99800384012588561</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="8"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="6">
         <v>0.99800383779444968</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="6">
         <v>3.5349858053300673</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="12">
+      <c r="G69" s="7">
         <v>0.99800383842506202</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="8"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="6">
         <v>1.1491900087240784E-16</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="6">
         <v>4.9646979707649743</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="12">
+      <c r="G70" s="7">
         <v>6.3205593905831629E-10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="8"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>15.861744260787964</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <v>34.652818632125857</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="9">
+      <c r="G71" s="6">
         <v>18.04747174580892</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="6">
         <v>3.0748598780654118E-4</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="11">
+        <v>8.0497105098769717E-4</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="12">
+      <c r="G72" s="7">
         <v>7.3720349957040075E-4</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="8"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="6">
         <v>3.0748598907113389E-4</v>
       </c>
-      <c r="D73" s="3"/>
+      <c r="D73" s="11">
+        <v>2.972956144463814E-2</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="12">
+      <c r="G73" s="7">
         <v>2.0455593816561479E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="8"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="6">
         <v>3.0748598809328458E-4</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="11">
+        <v>1.7497956260056825E-2</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="12">
+      <c r="G74" s="7">
         <v>2.9413726924157595E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="8"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="6">
         <v>4.0341366698479596E-13</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="11">
+        <v>8.2787159533496257E-3</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="12">
+      <c r="G75" s="7">
         <v>4.8766514007445496E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="8"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="9">
         <v>5.2884393056233723</v>
       </c>
-      <c r="D76" s="3"/>
+      <c r="D76" s="12">
+        <v>11.69674506187439</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="9">
+      <c r="G76" s="6">
         <v>7.4608524640401201</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D77" s="3"/>
+      <c r="D77" s="11">
+        <v>-1.0316284534777469</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="12">
+      <c r="G77" s="7">
         <v>-1.0316275932333701</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="8"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D78" s="3"/>
+      <c r="D78" s="11">
+        <v>-0.93660426685322129</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="12">
+      <c r="G78" s="7">
         <v>-1.0314907517168881</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="8"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="11">
+        <v>-1.024957936199197</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="12">
+      <c r="G79" s="7">
         <v>-1.0316012130157048</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="8"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="6">
         <v>0</v>
       </c>
-      <c r="D80" s="3"/>
+      <c r="D80" s="11">
+        <v>2.446134945993984E-2</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="12">
+      <c r="G80" s="7">
         <v>3.7769190191714913E-5</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="8"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="9">
         <v>4.1293306986490883</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="12">
+        <v>8.6562311490376782</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="9">
+      <c r="G81" s="6">
         <v>6.3987393538157145</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D82" s="3"/>
+      <c r="D82" s="11">
+        <v>0.39788735772973821</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="12">
+      <c r="G82" s="7">
         <v>0.39788756291054561</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="8"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="11">
+        <v>0.39788735896440741</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="12">
+      <c r="G83" s="7">
         <v>0.39793731275420008</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="8"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="11">
+        <v>0.39788735783416912</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="12">
+      <c r="G84" s="7">
         <v>0.39790104370218521</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="8"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="6">
         <v>0</v>
       </c>
-      <c r="D85" s="3"/>
+      <c r="D85" s="11">
+        <v>3.2218790680905095E-10</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="12">
+      <c r="G85" s="7">
         <v>1.7889171673090898E-5</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="8"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="9">
         <v>4.2193589051564535</v>
       </c>
-      <c r="D86" s="3"/>
+      <c r="D86" s="12">
+        <v>8.9643945693969727</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="9">
+      <c r="G86" s="6">
         <v>6.403632148106893</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="6">
         <v>2.9999999999999218</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="11">
+        <v>2.9999999999999321</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="12">
+      <c r="G87" s="7">
         <v>3.0000023921144341</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="8"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="6">
         <v>2.9999999999999232</v>
       </c>
-      <c r="D88" s="3"/>
+      <c r="D88" s="11">
+        <v>3.0000308535579561</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="12">
+      <c r="G88" s="7">
         <v>3.000664125355756</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="8"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="6">
         <v>2.9999999999999218</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89" s="11">
+        <v>3.0000028303144703</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="12">
+      <c r="G89" s="7">
         <v>3.000154541507956</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="8"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="6">
         <v>3.5606350123330496E-16</v>
       </c>
-      <c r="D90" s="3"/>
+      <c r="D90" s="11">
+        <v>7.9499253760529621E-6</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="12">
+      <c r="G90" s="7">
         <v>1.7535202518317581E-4</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="8"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="9">
         <v>4.3392016092936201</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="12">
+        <v>9.076298093795776</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="9">
+      <c r="G91" s="6">
         <v>6.5421496073404946</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="6">
         <v>-3.8627821478207558</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="11">
+        <v>-3.8627821478207549</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="12">
+      <c r="G92" s="7">
         <v>-3.862782091435299</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="8"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="6">
         <v>-3.8627821478207558</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="11">
+        <v>-3.8549006154771361</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="12">
+      <c r="G93" s="7">
         <v>-3.862779707001085</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="8"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="6">
         <v>-3.862782147820754</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="11">
+        <v>-3.8570023582402215</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="12">
+      <c r="G94" s="7">
         <v>-3.8627813891652214</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="8"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="6">
         <v>1.8387040139585255E-15</v>
       </c>
-      <c r="D95" s="3"/>
+      <c r="D95" s="11">
+        <v>3.6076740484025879E-3</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="12">
+      <c r="G95" s="7">
         <v>7.7606822531421228E-7</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="8"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="9">
         <v>6.2801953951517744</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="12">
+        <v>13.574093516667684</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="9">
+      <c r="G96" s="6">
         <v>8.3715076923370368</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="6">
         <v>-3.3220206172329818</v>
       </c>
-      <c r="D97" s="3"/>
+      <c r="D97" s="11">
+        <v>-3.322020617232972</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="12">
+      <c r="G97" s="7">
         <v>-3.3220202713079252</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="8"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="6">
         <v>-3.322020617232909</v>
       </c>
-      <c r="D98" s="3"/>
+      <c r="D98" s="11">
+        <v>-2.2671366024420432</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="12">
+      <c r="G98" s="7">
         <v>-3.2030972283678958</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="8"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="6">
         <v>-3.322020617232968</v>
       </c>
-      <c r="D99" s="3"/>
+      <c r="D99" s="11">
+        <v>-2.8715642129915366</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="12">
+      <c r="G99" s="7">
         <v>-3.2903062830327965</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="8"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="6">
         <v>1.9029698260931026E-14</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="11">
+        <v>0.29915331150041058</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="12">
+      <c r="G100" s="7">
         <v>5.4433413772436344E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="8"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="9">
         <v>6.4454766114552813</v>
       </c>
-      <c r="D101" s="3"/>
+      <c r="D101" s="12">
+        <v>13.850250832239787</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="9">
+      <c r="G101" s="6">
         <v>8.5331263542175293</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="6">
         <v>-10.153199679058231</v>
       </c>
-      <c r="D102" s="3"/>
+      <c r="D102" s="11">
+        <v>-10.15319967279302</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="12">
+      <c r="G102" s="7">
         <v>-10.152889071313171</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="8"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="6">
         <v>-10.153199679058231</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="11">
+        <v>-0.88199087679047572</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="12">
+      <c r="G103" s="7">
         <v>-2.6304081189933561</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="8"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="6">
         <v>-10.153199679058229</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="11">
+        <v>-4.4934890693966327</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="12">
+      <c r="G104" s="7">
         <v>-3.983730387266716</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="8"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="6">
         <v>1.8387040139585255E-15</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="11">
+        <v>2.1079015007804429</v>
+      </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="12">
+      <c r="G105" s="7">
         <v>2.6446737300687606</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="8"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="9">
         <v>6.905402167638143</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="12">
+        <v>14.849234406153361</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="9">
+      <c r="G106" s="6">
         <v>9.0868903319040939</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="6">
         <v>-10.402940566818661</v>
       </c>
-      <c r="D107" s="3"/>
+      <c r="D107" s="11">
+        <v>-10.40294056681843</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="12">
+      <c r="G107" s="7">
         <v>-10.40250960959041</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="8"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="6">
         <v>-10.402940566818639</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108" s="11">
+        <v>-0.75624789987210939</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="12">
+      <c r="G108" s="7">
         <v>-1.8375787060071529</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="8"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="6">
         <v>-10.402940566818661</v>
       </c>
-      <c r="D109" s="3"/>
+      <c r="D109" s="11">
+        <v>-6.4378636444726229</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="12">
+      <c r="G109" s="7">
         <v>-4.1954804808398736</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="8"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="6">
         <v>5.6970160197328794E-15</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110" s="11">
+        <v>3.556379758931155</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="12">
+      <c r="G110" s="7">
         <v>2.6297216751234536</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="8"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="9">
         <v>7.8499813238779703</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111" s="12">
+        <v>16.752114216486614</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="9">
+      <c r="G111" s="6">
         <v>9.9091487725575771</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="6">
         <v>-10.53640981669205</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="11">
+        <v>-10.536409816600299</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="12">
+      <c r="G112" s="7">
         <v>-10.536239725150191</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="8"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="6">
         <v>-10.53640981669168</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="11">
+        <v>-0.94706676590629124</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="12">
+      <c r="G113" s="7">
         <v>-2.427297399575306</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="8"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="6">
         <v>-10.536409816692014</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114" s="11">
+        <v>-4.9256469770732281</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="12">
+      <c r="G114" s="7">
         <v>-4.8716770016802888</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="8"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="6">
         <v>9.2106653199303816E-14</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="11">
+        <v>3.1684005277418597</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="12">
+      <c r="G115" s="7">
         <v>3.0313069269683712</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="8"/>
+      <c r="A116" s="10"/>
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="9">
         <v>9.2027308622996014</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116" s="12">
+        <v>19.830562766393022</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="9">
+      <c r="G116" s="6">
         <v>11.324762837092083</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="A107:A111"/>
@@ -2748,6 +2859,13 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Flower pollination algorithm/data.xlsx
+++ b/Flower pollination algorithm/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A648F-38C5-5D46-8BB9-1C8380791988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3846E9-56E4-A247-AB51-4198D6C63E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1120" windowWidth="24780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1480" windowWidth="24780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="37">
   <si>
     <t>函数</t>
   </si>
@@ -144,12 +144,20 @@
   <si>
     <t>用时</t>
   </si>
+  <si>
+    <t>综合评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领先</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +208,27 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,13 +261,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,22 +303,523 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -608,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -641,7 +1182,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -664,7 +1205,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -685,7 +1226,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,7 +1247,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +1268,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -748,7 +1289,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -771,7 +1312,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -792,7 +1333,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -813,7 +1354,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -834,7 +1375,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -855,7 +1396,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -878,7 +1419,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +1440,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -920,7 +1461,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1482,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -962,7 +1503,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -985,7 +1526,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1547,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1568,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1589,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1610,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1084,15 +1625,15 @@
       <c r="E22" s="6">
         <v>115.01140938840329</v>
       </c>
-      <c r="F22" s="6">
-        <v>115.01140938840329</v>
+      <c r="F22" s="11">
+        <v>2517352.1113755978</v>
       </c>
       <c r="G22" s="7">
         <v>1187.7924660483559</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,15 +1646,15 @@
       <c r="E23" s="6">
         <v>963.2615053270539</v>
       </c>
-      <c r="F23" s="6">
-        <v>963.2615053270539</v>
+      <c r="F23" s="11">
+        <v>15606837.98889312</v>
       </c>
       <c r="G23" s="7">
         <v>4862.4116201301831</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,15 +1667,15 @@
       <c r="E24" s="6">
         <v>265.87856342442984</v>
       </c>
-      <c r="F24" s="6">
-        <v>265.87856342442984</v>
+      <c r="F24" s="11">
+        <v>8067940.5035002632</v>
       </c>
       <c r="G24" s="7">
         <v>2637.2222339394948</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,14 +1689,14 @@
         <v>228.50711468288659</v>
       </c>
       <c r="F25" s="6">
-        <v>228.50711468288659</v>
+        <v>3897689.0379041056</v>
       </c>
       <c r="G25" s="7">
         <v>1119.3116525009984</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1169,14 +1710,14 @@
         <v>5.9067193984985353</v>
       </c>
       <c r="F26" s="6">
-        <v>5.9067193984985353</v>
+        <v>37.754600381851198</v>
       </c>
       <c r="G26" s="6">
         <v>5.7219397226969404</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1192,14 +1733,14 @@
         <v>1.4064918118976859</v>
       </c>
       <c r="F27" s="6">
-        <v>1.4064918118976859</v>
+        <v>2227.8334120527302</v>
       </c>
       <c r="G27" s="7">
         <v>47.838297392754328</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1213,14 +1754,14 @@
         <v>2.8655175161963111</v>
       </c>
       <c r="F28" s="6">
-        <v>2.8655175161963111</v>
+        <v>3936.7611498933788</v>
       </c>
       <c r="G28" s="7">
         <v>84.602527439964987</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1234,14 +1775,14 @@
         <v>1.9066091740461166</v>
       </c>
       <c r="F29" s="6">
-        <v>1.9066091740461166</v>
+        <v>3166.4514545253774</v>
       </c>
       <c r="G29" s="7">
         <v>61.844183694575818</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,14 +1796,14 @@
         <v>0.37731866165264955</v>
       </c>
       <c r="F30" s="6">
-        <v>0.37731866165264955</v>
+        <v>550.77057295517091</v>
       </c>
       <c r="G30" s="7">
         <v>11.789224144460805</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1276,14 +1817,14 @@
         <v>4.9330140272776282</v>
       </c>
       <c r="F31" s="6">
-        <v>4.9330140272776282</v>
+        <v>37.149308705329894</v>
       </c>
       <c r="G31" s="6">
         <v>5.4546106179555256</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1299,14 +1840,14 @@
         <v>0.18900595886392449</v>
       </c>
       <c r="F32" s="6">
-        <v>0.18900595886392449</v>
+        <v>2.0549534089351398</v>
       </c>
       <c r="G32" s="7">
         <v>7.4657004500178592E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1320,14 +1861,14 @@
         <v>0.5917468122870625</v>
       </c>
       <c r="F33" s="6">
-        <v>0.5917468122870625</v>
+        <v>3.862166434949672</v>
       </c>
       <c r="G33" s="7">
         <v>0.1696414403178069</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1341,14 +1882,14 @@
         <v>0.33726194444965413</v>
       </c>
       <c r="F34" s="6">
-        <v>0.33726194444965413</v>
+        <v>2.9279247069101868</v>
       </c>
       <c r="G34" s="7">
         <v>0.10160672960321843</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1362,14 +1903,14 @@
         <v>0.10198234492923104</v>
       </c>
       <c r="F35" s="6">
-        <v>0.10198234492923104</v>
+        <v>0.59579464909497282</v>
       </c>
       <c r="G35" s="7">
         <v>2.7392965351226411E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1383,14 +1924,14 @@
         <v>5.0620953241984052</v>
       </c>
       <c r="F36" s="6">
-        <v>5.0620953241984052</v>
+        <v>36.916978597640991</v>
       </c>
       <c r="G36" s="6">
         <v>6.0879555702209469</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1405,13 +1946,15 @@
       <c r="E37" s="6">
         <v>-8382.3273446704807</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="6">
+        <v>-5033.1062177507338</v>
+      </c>
       <c r="G37" s="7">
         <v>-12532.336927587579</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1424,13 +1967,15 @@
       <c r="E38" s="6">
         <v>-6329.4983522165821</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="6">
+        <v>-4508.3352016528434</v>
+      </c>
       <c r="G38" s="7">
         <v>-12477.138802416001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1443,13 +1988,15 @@
       <c r="E39" s="6">
         <v>-7316.9032275121981</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="6">
+        <v>-4722.7907309404045</v>
+      </c>
       <c r="G39" s="7">
         <v>-12504.231698696598</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,32 +2009,36 @@
       <c r="E40" s="6">
         <v>708.76057759151456</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="6">
+        <v>195.77201004680614</v>
+      </c>
       <c r="G40" s="7">
         <v>17.363973646588011</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="4">
         <v>7.8353701432545977</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>17.229557387034099</v>
       </c>
       <c r="E41" s="6">
         <v>25.581743415196737</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="6">
+        <v>182.99052422046663</v>
+      </c>
       <c r="G41" s="6">
         <v>2.2880114714304605</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1502,13 +2053,15 @@
       <c r="E42" s="6">
         <v>1.9118655934747151</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="6">
+        <v>248.0380418405193</v>
+      </c>
       <c r="G42" s="7">
         <v>1.4789273482741689</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1521,13 +2074,15 @@
       <c r="E43" s="6">
         <v>6.0653733279477819</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="6">
+        <v>293.81004776131061</v>
+      </c>
       <c r="G43" s="7">
         <v>4.5626719920944083</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1540,13 +2095,15 @@
       <c r="E44" s="6">
         <v>4.3412884429127647</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="6">
+        <v>274.58023203607013</v>
+      </c>
       <c r="G44" s="7">
         <v>2.8417985817540927</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1559,32 +2116,36 @@
       <c r="E45" s="6">
         <v>1.4536977568634817</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="6">
+        <v>15.453841753584436</v>
+      </c>
       <c r="G45" s="7">
         <v>0.83656032640828859</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="4">
         <v>7.9986858367919922</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>16.891468413670857</v>
       </c>
       <c r="E46" s="6">
         <v>25.277656618754069</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="6">
+        <v>73.393502593040466</v>
+      </c>
       <c r="G46" s="6">
         <v>11.406019751230875</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1599,13 +2160,15 @@
       <c r="E47" s="6">
         <v>6.4119749658541725E-2</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="6">
+        <v>20.01603680631294</v>
+      </c>
       <c r="G47" s="7">
         <v>1.8063615088849161</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1618,13 +2181,15 @@
       <c r="E48" s="6">
         <v>2.108523092124206</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="6">
+        <v>20.25102536579298</v>
+      </c>
       <c r="G48" s="7">
         <v>2.6542235492407582</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1637,13 +2202,15 @@
       <c r="E49" s="6">
         <v>0.26020999883003409</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="6">
+        <v>20.164958346511998</v>
+      </c>
       <c r="G49" s="7">
         <v>2.3444773460536292</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1656,32 +2223,36 @@
       <c r="E50" s="6">
         <v>0.52183362666003696</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="6">
+        <v>7.2006724225400276E-2</v>
+      </c>
       <c r="G50" s="7">
         <v>0.21087752969675241</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="4">
         <v>8.946209828058878</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>18.485080862045287</v>
       </c>
       <c r="E51" s="6">
         <v>29.255553627014159</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="6">
+        <v>73.29453632235527</v>
+      </c>
       <c r="G51" s="6">
         <v>12.299653784434003</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1693,7 +2264,7 @@
       <c r="D52" s="6">
         <v>24.09834757003042</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="6">
         <v>2.966255176753418E-3</v>
       </c>
       <c r="F52" s="3"/>
@@ -1702,7 +2273,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +2283,7 @@
       <c r="D53" s="6">
         <v>376.06377965693412</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="6">
         <v>2.6970588975240739E-2</v>
       </c>
       <c r="F53" s="3"/>
@@ -1721,7 +2292,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +2302,7 @@
       <c r="D54" s="6">
         <v>189.83159433843861</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="6">
         <v>1.2650465660028868E-2</v>
       </c>
       <c r="F54" s="3"/>
@@ -1740,7 +2311,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +2321,7 @@
       <c r="D55" s="6">
         <v>107.61421020114599</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="6">
         <v>8.1995086446737704E-3</v>
       </c>
       <c r="F55" s="3"/>
@@ -1759,17 +2330,17 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="4">
         <v>8.2751951535542805</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>17.943318303426107</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="6">
         <v>27.482762098312378</v>
       </c>
       <c r="F56" s="3"/>
@@ -1778,7 +2349,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1790,7 +2361,7 @@
       <c r="D57" s="6">
         <v>14.26409143888354</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="6">
         <v>3.6950283167572711E-4</v>
       </c>
       <c r="F57" s="3"/>
@@ -1799,7 +2370,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +2380,7 @@
       <c r="D58" s="6">
         <v>676932179.49057579</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="6">
         <v>4.925034179359173</v>
       </c>
       <c r="F58" s="3"/>
@@ -1818,7 +2389,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +2399,7 @@
       <c r="D59" s="6">
         <v>186471609.2443586</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="6">
         <v>0.98819174914112173</v>
       </c>
       <c r="F59" s="3"/>
@@ -1837,7 +2408,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +2418,7 @@
       <c r="D60" s="6">
         <v>239340824.83200327</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="6">
         <v>1.6320181700982821</v>
       </c>
       <c r="F60" s="3"/>
@@ -1856,17 +2427,17 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C61" s="4">
         <v>11.67039771080017</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>26.493236684799193</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="6">
         <v>40.540782419840497</v>
       </c>
       <c r="F61" s="3"/>
@@ -1875,7 +2446,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1887,7 +2458,7 @@
       <c r="D62" s="6">
         <v>393.79868819843449</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="6">
         <v>5.5419321741544516E-4</v>
       </c>
       <c r="F62" s="3"/>
@@ -1896,7 +2467,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +2477,7 @@
       <c r="D63" s="6">
         <v>1817.2787521938201</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="6">
         <v>3.3293865983430588E-3</v>
       </c>
       <c r="F63" s="3"/>
@@ -1915,7 +2486,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +2496,7 @@
       <c r="D64" s="6">
         <v>736.33776064738163</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="6">
         <v>1.6995275238840537E-3</v>
       </c>
       <c r="F64" s="3"/>
@@ -1933,8 +2504,8 @@
         <v>0.13524579961405833</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
@@ -1944,7 +2515,7 @@
       <c r="D65" s="6">
         <v>336.07820901934519</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="6">
         <v>8.5335585580678045E-4</v>
       </c>
       <c r="F65" s="3"/>
@@ -1952,18 +2523,18 @@
         <v>5.3559046213987639E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4">
         <v>11.326757891972859</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>24.908014440536498</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="6">
         <v>37.77038629849752</v>
       </c>
       <c r="F66" s="3"/>
@@ -1971,8 +2542,8 @@
         <v>14.272566906611127</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1990,8 +2561,8 @@
         <v>0.99800383779859569</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2007,12 +2578,12 @@
         <v>0.99800384012588561</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="19">
         <v>0.99800383779444968</v>
       </c>
       <c r="D69" s="6">
@@ -2023,9 +2594,14 @@
       <c r="G69" s="7">
         <v>0.99800383842506202</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -2041,15 +2617,15 @@
         <v>6.3205593905831629E-10</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>15.861744260787964</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>34.652818632125857</v>
       </c>
       <c r="E71" s="3"/>
@@ -2058,8 +2634,8 @@
         <v>18.04747174580892</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:12">
+      <c r="A72" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2068,7 +2644,7 @@
       <c r="C72" s="6">
         <v>3.0748598780654118E-4</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>8.0497105098769717E-4</v>
       </c>
       <c r="E72" s="3"/>
@@ -2077,15 +2653,15 @@
         <v>7.3720349957040075E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:12">
+      <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="6">
         <v>3.0748598907113389E-4</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="6">
         <v>2.972956144463814E-2</v>
       </c>
       <c r="E73" s="3"/>
@@ -2094,15 +2670,15 @@
         <v>2.0455593816561479E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:12">
+      <c r="A74" s="9"/>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="6">
         <v>3.0748598809328458E-4</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>1.7497956260056825E-2</v>
       </c>
       <c r="E74" s="3"/>
@@ -2111,15 +2687,15 @@
         <v>2.9413726924157595E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:12">
+      <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="6">
         <v>4.0341366698479596E-13</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="6">
         <v>8.2787159533496257E-3</v>
       </c>
       <c r="E75" s="3"/>
@@ -2128,15 +2704,15 @@
         <v>4.8766514007445496E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:12">
+      <c r="A76" s="9"/>
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>5.2884393056233723</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="8">
         <v>11.69674506187439</v>
       </c>
       <c r="E76" s="3"/>
@@ -2145,8 +2721,8 @@
         <v>7.4608524640401201</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:12">
+      <c r="A77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2155,7 +2731,7 @@
       <c r="C77" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="6">
         <v>-1.0316284534777469</v>
       </c>
       <c r="E77" s="3"/>
@@ -2164,15 +2740,15 @@
         <v>-1.0316275932333701</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:12">
+      <c r="A78" s="9"/>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="6">
         <v>-0.93660426685322129</v>
       </c>
       <c r="E78" s="3"/>
@@ -2181,15 +2757,15 @@
         <v>-1.0314907517168881</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:12">
+      <c r="A79" s="9"/>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="6">
         <v>-1.0316284534898781</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="6">
         <v>-1.024957936199197</v>
       </c>
       <c r="E79" s="3"/>
@@ -2197,16 +2773,21 @@
       <c r="G79" s="7">
         <v>-1.0316012130157048</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="6">
         <v>0</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="6">
         <v>2.446134945993984E-2</v>
       </c>
       <c r="E80" s="3"/>
@@ -2216,14 +2797,14 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>4.1293306986490883</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="8">
         <v>8.6562311490376782</v>
       </c>
       <c r="E81" s="3"/>
@@ -2233,7 +2814,7 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2242,7 +2823,7 @@
       <c r="C82" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="6">
         <v>0.39788735772973821</v>
       </c>
       <c r="E82" s="3"/>
@@ -2252,14 +2833,14 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="6">
         <v>0.39788735896440741</v>
       </c>
       <c r="E83" s="3"/>
@@ -2269,14 +2850,14 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="6">
         <v>0.39788735772973821</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="6">
         <v>0.39788735783416912</v>
       </c>
       <c r="E84" s="3"/>
@@ -2286,14 +2867,14 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="6">
         <v>0</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="6">
         <v>3.2218790680905095E-10</v>
       </c>
       <c r="E85" s="3"/>
@@ -2303,14 +2884,14 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>4.2193589051564535</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="8">
         <v>8.9643945693969727</v>
       </c>
       <c r="E86" s="3"/>
@@ -2320,7 +2901,7 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2329,7 +2910,7 @@
       <c r="C87" s="6">
         <v>2.9999999999999218</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="6">
         <v>2.9999999999999321</v>
       </c>
       <c r="E87" s="3"/>
@@ -2339,14 +2920,14 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="6">
         <v>2.9999999999999232</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="6">
         <v>3.0000308535579561</v>
       </c>
       <c r="E88" s="3"/>
@@ -2356,14 +2937,14 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="6">
         <v>2.9999999999999218</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="6">
         <v>3.0000028303144703</v>
       </c>
       <c r="E89" s="3"/>
@@ -2373,14 +2954,14 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="6">
         <v>3.5606350123330496E-16</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="6">
         <v>7.9499253760529621E-6</v>
       </c>
       <c r="E90" s="3"/>
@@ -2390,14 +2971,14 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>4.3392016092936201</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="8">
         <v>9.076298093795776</v>
       </c>
       <c r="E91" s="3"/>
@@ -2407,7 +2988,7 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2416,7 +2997,7 @@
       <c r="C92" s="6">
         <v>-3.8627821478207558</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="6">
         <v>-3.8627821478207549</v>
       </c>
       <c r="E92" s="3"/>
@@ -2426,14 +3007,14 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="6">
         <v>-3.8627821478207558</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="6">
         <v>-3.8549006154771361</v>
       </c>
       <c r="E93" s="3"/>
@@ -2443,14 +3024,14 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="6">
         <v>-3.862782147820754</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="6">
         <v>-3.8570023582402215</v>
       </c>
       <c r="E94" s="3"/>
@@ -2460,14 +3041,14 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="6">
         <v>1.8387040139585255E-15</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="6">
         <v>3.6076740484025879E-3</v>
       </c>
       <c r="E95" s="3"/>
@@ -2477,14 +3058,14 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>6.2801953951517744</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="8">
         <v>13.574093516667684</v>
       </c>
       <c r="E96" s="3"/>
@@ -2494,7 +3075,7 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2503,7 +3084,7 @@
       <c r="C97" s="6">
         <v>-3.3220206172329818</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="6">
         <v>-3.322020617232972</v>
       </c>
       <c r="E97" s="3"/>
@@ -2513,14 +3094,14 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="6">
         <v>-3.322020617232909</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="6">
         <v>-2.2671366024420432</v>
       </c>
       <c r="E98" s="3"/>
@@ -2530,14 +3111,14 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="6">
         <v>-3.322020617232968</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="6">
         <v>-2.8715642129915366</v>
       </c>
       <c r="E99" s="3"/>
@@ -2547,14 +3128,14 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="6">
         <v>1.9029698260931026E-14</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="6">
         <v>0.29915331150041058</v>
       </c>
       <c r="E100" s="3"/>
@@ -2564,14 +3145,14 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>6.4454766114552813</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="8">
         <v>13.850250832239787</v>
       </c>
       <c r="E101" s="3"/>
@@ -2581,7 +3162,7 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -2590,7 +3171,7 @@
       <c r="C102" s="6">
         <v>-10.153199679058231</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="6">
         <v>-10.15319967279302</v>
       </c>
       <c r="E102" s="3"/>
@@ -2600,14 +3181,14 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="6">
         <v>-10.153199679058231</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="6">
         <v>-0.88199087679047572</v>
       </c>
       <c r="E103" s="3"/>
@@ -2617,14 +3198,14 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="6">
         <v>-10.153199679058229</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="6">
         <v>-4.4934890693966327</v>
       </c>
       <c r="E104" s="3"/>
@@ -2634,14 +3215,14 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="6">
         <v>1.8387040139585255E-15</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="6">
         <v>2.1079015007804429</v>
       </c>
       <c r="E105" s="3"/>
@@ -2651,14 +3232,14 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <v>6.905402167638143</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="8">
         <v>14.849234406153361</v>
       </c>
       <c r="E106" s="3"/>
@@ -2668,7 +3249,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -2677,7 +3258,7 @@
       <c r="C107" s="6">
         <v>-10.402940566818661</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="6">
         <v>-10.40294056681843</v>
       </c>
       <c r="E107" s="3"/>
@@ -2687,14 +3268,14 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="6">
         <v>-10.402940566818639</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="6">
         <v>-0.75624789987210939</v>
       </c>
       <c r="E108" s="3"/>
@@ -2704,14 +3285,14 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="6">
         <v>-10.402940566818661</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="6">
         <v>-6.4378636444726229</v>
       </c>
       <c r="E109" s="3"/>
@@ -2721,14 +3302,14 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="6">
         <v>5.6970160197328794E-15</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="6">
         <v>3.556379758931155</v>
       </c>
       <c r="E110" s="3"/>
@@ -2738,14 +3319,14 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>7.8499813238779703</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="8">
         <v>16.752114216486614</v>
       </c>
       <c r="E111" s="3"/>
@@ -2755,7 +3336,7 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -2764,7 +3345,7 @@
       <c r="C112" s="6">
         <v>-10.53640981669205</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="6">
         <v>-10.536409816600299</v>
       </c>
       <c r="E112" s="3"/>
@@ -2774,14 +3355,14 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="6">
         <v>-10.53640981669168</v>
       </c>
-      <c r="D113" s="11">
+      <c r="D113" s="6">
         <v>-0.94706676590629124</v>
       </c>
       <c r="E113" s="3"/>
@@ -2791,14 +3372,14 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="10"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="6">
         <v>-10.536409816692014</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="6">
         <v>-4.9256469770732281</v>
       </c>
       <c r="E114" s="3"/>
@@ -2808,14 +3389,14 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="6">
         <v>9.2106653199303816E-14</v>
       </c>
-      <c r="D115" s="11">
+      <c r="D115" s="6">
         <v>3.1684005277418597</v>
       </c>
       <c r="E115" s="3"/>
@@ -2825,14 +3406,14 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>9.2027308622996014</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="8">
         <v>19.830562766393022</v>
       </c>
       <c r="E116" s="3"/>
@@ -2841,8 +3422,87 @@
         <v>11.324762837092083</v>
       </c>
     </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="20">
+        <v>12</v>
+      </c>
+      <c r="D117" s="20">
+        <v>0</v>
+      </c>
+      <c r="E117" s="20">
+        <v>6</v>
+      </c>
+      <c r="F117" s="20">
+        <v>0</v>
+      </c>
+      <c r="G117" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="12"/>
+      <c r="B118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="20">
+        <v>22</v>
+      </c>
+      <c r="D118" s="20">
+        <v>0</v>
+      </c>
+      <c r="E118" s="22">
+        <v>0</v>
+      </c>
+      <c r="F118" s="20">
+        <v>0</v>
+      </c>
+      <c r="G118" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="16"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="13"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="A107:A111"/>
@@ -2859,15 +3519,146 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="top10" dxfId="46" priority="46" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G6">
+    <cfRule type="top10" dxfId="45" priority="45" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:G9">
+    <cfRule type="top10" dxfId="44" priority="44" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:G11">
+    <cfRule type="top10" dxfId="43" priority="43" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G14">
+    <cfRule type="top10" dxfId="42" priority="42" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:G16">
+    <cfRule type="top10" dxfId="41" priority="41" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:G19">
+    <cfRule type="top10" dxfId="40" priority="40" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:G21">
+    <cfRule type="top10" dxfId="39" priority="39" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:G24">
+    <cfRule type="top10" dxfId="38" priority="38" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G26">
+    <cfRule type="top10" dxfId="37" priority="37" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:G29">
+    <cfRule type="top10" dxfId="36" priority="36" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:G31">
+    <cfRule type="top10" dxfId="35" priority="35" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:G34">
+    <cfRule type="top10" dxfId="34" priority="34" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:G36">
+    <cfRule type="top10" dxfId="33" priority="33" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:G39">
+    <cfRule type="top10" dxfId="32" priority="32" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:G41">
+    <cfRule type="top10" dxfId="31" priority="31" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:G44">
+    <cfRule type="top10" dxfId="30" priority="30" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:G46">
+    <cfRule type="top10" dxfId="29" priority="29" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:G49">
+    <cfRule type="top10" dxfId="28" priority="28" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:G51">
+    <cfRule type="top10" dxfId="27" priority="27" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:G54">
+    <cfRule type="top10" dxfId="26" priority="26" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:G56">
+    <cfRule type="top10" dxfId="25" priority="25" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G59">
+    <cfRule type="top10" dxfId="24" priority="24" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:G61">
+    <cfRule type="top10" dxfId="23" priority="23" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:G64">
+    <cfRule type="top10" dxfId="22" priority="22" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:G71">
+    <cfRule type="top10" dxfId="21" priority="21" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:G74">
+    <cfRule type="top10" dxfId="20" priority="20" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76:G76">
+    <cfRule type="top10" dxfId="19" priority="19" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:G81">
+    <cfRule type="top10" dxfId="17" priority="18" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:G114">
+    <cfRule type="top10" dxfId="16" priority="17" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116:G116">
+    <cfRule type="top10" dxfId="15" priority="16" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:G109">
+    <cfRule type="top10" dxfId="14" priority="15" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:G111">
+    <cfRule type="top10" dxfId="13" priority="14" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104:G104">
+    <cfRule type="top10" dxfId="12" priority="13" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:G106">
+    <cfRule type="top10" dxfId="11" priority="12" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:G99">
+    <cfRule type="top10" dxfId="10" priority="11" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:G101">
+    <cfRule type="top10" dxfId="9" priority="10" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:G94">
+    <cfRule type="top10" dxfId="8" priority="9" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96:G96">
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:G89">
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:G91">
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:G86">
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:G84">
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:G79">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:G69">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:G66">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Flower pollination algorithm/data.xlsx
+++ b/Flower pollination algorithm/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3846E9-56E4-A247-AB51-4198D6C63E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D04420-F10B-C74C-BBE2-5DEC5E9EBCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="1480" windowWidth="24780" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,61 +304,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1152,8 +1136,8 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1182,7 +1166,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1205,7 +1189,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1210,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1231,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1252,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1289,7 +1273,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1312,7 +1296,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1317,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1338,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1396,7 +1380,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1419,7 +1403,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1424,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1445,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1466,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1487,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1526,7 +1510,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1531,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1568,7 +1552,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1573,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1594,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1625,7 +1609,7 @@
       <c r="E22" s="6">
         <v>115.01140938840329</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>2517352.1113755978</v>
       </c>
       <c r="G22" s="7">
@@ -1633,7 +1617,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1630,7 @@
       <c r="E23" s="6">
         <v>963.2615053270539</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>15606837.98889312</v>
       </c>
       <c r="G23" s="7">
@@ -1654,7 +1638,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1651,7 @@
       <c r="E24" s="6">
         <v>265.87856342442984</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>8067940.5035002632</v>
       </c>
       <c r="G24" s="7">
@@ -1675,7 +1659,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1680,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1717,7 +1701,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1740,7 +1724,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1745,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1766,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1787,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1824,7 +1808,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1847,7 +1831,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1852,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1889,7 +1873,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1894,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1915,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1954,7 +1938,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +1959,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +1980,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2001,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2022,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2061,7 +2045,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2066,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2087,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2108,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2129,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2168,7 +2152,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2173,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2194,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="9"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2215,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="9"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
@@ -2252,7 +2236,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2273,7 +2257,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
@@ -2292,7 +2276,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="9"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
@@ -2311,7 +2295,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="9"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +2314,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="9"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2333,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2370,7 +2354,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="9"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2373,7 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="9"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2392,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2427,7 +2411,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2446,7 +2430,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2467,7 +2451,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="9"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2470,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="9"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2489,7 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="9"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2508,7 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="9"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
@@ -2543,7 +2527,7 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2562,7 +2546,7 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="9"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
@@ -2579,11 +2563,11 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="9"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="15">
         <v>0.99800383779444968</v>
       </c>
       <c r="D69" s="6">
@@ -2594,14 +2578,14 @@
       <c r="G69" s="7">
         <v>0.99800383842506202</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="9"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2602,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="9"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
@@ -2635,7 +2619,7 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2654,7 +2638,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="9"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2655,7 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="9"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
@@ -2688,7 +2672,7 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="9"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2689,7 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="9"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="1" t="s">
         <v>34</v>
       </c>
@@ -2722,7 +2706,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2741,7 +2725,7 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="9"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
@@ -2758,7 +2742,7 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="9"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
@@ -2773,14 +2757,14 @@
       <c r="G79" s="7">
         <v>-1.0316012130157048</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="9"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2781,7 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="9"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="1" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2798,7 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2833,7 +2817,7 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
@@ -2850,7 +2834,7 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="9"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
@@ -2867,7 +2851,7 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="9"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2868,7 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="9"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="1" t="s">
         <v>34</v>
       </c>
@@ -2901,7 +2885,7 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2920,7 +2904,7 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2921,7 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2938,7 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="9"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2955,7 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="9"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
@@ -2988,7 +2972,7 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -3007,7 +2991,7 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="9"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3024,7 +3008,7 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="9"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3041,7 +3025,7 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="9"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3042,7 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="9"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,7 +3059,7 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3094,7 +3078,7 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="9"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
@@ -3111,7 +3095,7 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="9"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
@@ -3128,7 +3112,7 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="9"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
@@ -3145,7 +3129,7 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="9"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="1" t="s">
         <v>34</v>
       </c>
@@ -3162,7 +3146,7 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3181,7 +3165,7 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="9"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
@@ -3198,7 +3182,7 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="9"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
@@ -3215,7 +3199,7 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="9"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="1" t="s">
         <v>10</v>
       </c>
@@ -3232,7 +3216,7 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="1" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3233,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3268,7 +3252,7 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="9"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3269,7 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="9"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
@@ -3302,7 +3286,7 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="9"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
@@ -3319,7 +3303,7 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="9"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="1" t="s">
         <v>34</v>
       </c>
@@ -3336,7 +3320,7 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3355,7 +3339,7 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="9"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
@@ -3372,7 +3356,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="9"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3373,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="9"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
@@ -3406,7 +3390,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="9"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="1" t="s">
         <v>34</v>
       </c>
@@ -3423,78 +3407,89 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="20">
+      <c r="C117" s="16">
         <v>12</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D117" s="16">
         <v>0</v>
       </c>
-      <c r="E117" s="20">
+      <c r="E117" s="16">
         <v>6</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="16">
         <v>0</v>
       </c>
-      <c r="G117" s="20">
+      <c r="G117" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="12"/>
+      <c r="A118" s="19"/>
       <c r="B118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C118" s="20">
+      <c r="C118" s="16">
         <v>22</v>
       </c>
-      <c r="D118" s="20">
+      <c r="D118" s="16">
         <v>0</v>
       </c>
-      <c r="E118" s="22">
+      <c r="E118" s="18">
         <v>0</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="16">
         <v>0</v>
       </c>
-      <c r="G118" s="20">
+      <c r="G118" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="16"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="16"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="15"/>
+      <c r="A121" s="11"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A87:A91"/>
     <mergeCell ref="A92:A96"/>
@@ -3507,157 +3502,145 @@
     <mergeCell ref="A102:A106"/>
     <mergeCell ref="A107:A111"/>
     <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4:G4">
-    <cfRule type="top10" dxfId="46" priority="46" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="46" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="top10" dxfId="45" priority="45" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="45" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G9">
-    <cfRule type="top10" dxfId="44" priority="44" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="44" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:G11">
-    <cfRule type="top10" dxfId="43" priority="43" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="43" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:G14">
-    <cfRule type="top10" dxfId="42" priority="42" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="42" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:G16">
-    <cfRule type="top10" dxfId="41" priority="41" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="41" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:G19">
-    <cfRule type="top10" dxfId="40" priority="40" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="40" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:G21">
-    <cfRule type="top10" dxfId="39" priority="39" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="39" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24">
-    <cfRule type="top10" dxfId="38" priority="38" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="38" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:G26">
-    <cfRule type="top10" dxfId="37" priority="37" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="37" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:G29">
-    <cfRule type="top10" dxfId="36" priority="36" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="36" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:G31">
-    <cfRule type="top10" dxfId="35" priority="35" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="35" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:G34">
-    <cfRule type="top10" dxfId="34" priority="34" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="34" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:G36">
-    <cfRule type="top10" dxfId="33" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="33" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G39">
-    <cfRule type="top10" dxfId="32" priority="32" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="32" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:G41">
-    <cfRule type="top10" dxfId="31" priority="31" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="31" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:G44">
-    <cfRule type="top10" dxfId="30" priority="30" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="30" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:G46">
-    <cfRule type="top10" dxfId="29" priority="29" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="29" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:G49">
-    <cfRule type="top10" dxfId="28" priority="28" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="28" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:G51">
-    <cfRule type="top10" dxfId="27" priority="27" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="27" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:G54">
-    <cfRule type="top10" dxfId="26" priority="26" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="26" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:G56">
-    <cfRule type="top10" dxfId="25" priority="25" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="25" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:G59">
-    <cfRule type="top10" dxfId="24" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:G61">
-    <cfRule type="top10" dxfId="23" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="23" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:G64">
-    <cfRule type="top10" dxfId="22" priority="22" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="22" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:G66">
+    <cfRule type="top10" dxfId="20" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:G69">
+    <cfRule type="top10" dxfId="19" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:G71">
-    <cfRule type="top10" dxfId="21" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:G74">
-    <cfRule type="top10" dxfId="20" priority="20" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="20" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:G76">
-    <cfRule type="top10" dxfId="19" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="19" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:G79">
+    <cfRule type="top10" dxfId="15" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:G81">
-    <cfRule type="top10" dxfId="17" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="18" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:G84">
+    <cfRule type="top10" dxfId="13" priority="4" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:G86">
+    <cfRule type="top10" dxfId="12" priority="5" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:G89">
+    <cfRule type="top10" dxfId="11" priority="7" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:G91">
+    <cfRule type="top10" dxfId="10" priority="6" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:G94">
+    <cfRule type="top10" dxfId="9" priority="9" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96:G96">
+    <cfRule type="top10" dxfId="8" priority="8" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:G99">
+    <cfRule type="top10" dxfId="7" priority="11" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101:G101">
+    <cfRule type="top10" dxfId="6" priority="10" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104:G104">
+    <cfRule type="top10" dxfId="5" priority="13" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:G106">
+    <cfRule type="top10" dxfId="4" priority="12" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:G109">
+    <cfRule type="top10" dxfId="3" priority="15" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:G111">
+    <cfRule type="top10" dxfId="2" priority="14" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:G114">
-    <cfRule type="top10" dxfId="16" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="17" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:G116">
-    <cfRule type="top10" dxfId="15" priority="16" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109:G109">
-    <cfRule type="top10" dxfId="14" priority="15" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:G111">
-    <cfRule type="top10" dxfId="13" priority="14" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104:G104">
-    <cfRule type="top10" dxfId="12" priority="13" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106:G106">
-    <cfRule type="top10" dxfId="11" priority="12" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99:G99">
-    <cfRule type="top10" dxfId="10" priority="11" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101:G101">
-    <cfRule type="top10" dxfId="9" priority="10" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94:G94">
-    <cfRule type="top10" dxfId="8" priority="9" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96:G96">
-    <cfRule type="top10" dxfId="7" priority="8" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:G89">
-    <cfRule type="top10" dxfId="6" priority="7" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:G91">
-    <cfRule type="top10" dxfId="5" priority="6" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:G86">
-    <cfRule type="top10" dxfId="4" priority="5" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84:G84">
-    <cfRule type="top10" dxfId="3" priority="4" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79:G79">
-    <cfRule type="top10" dxfId="2" priority="3" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:G69">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:G66">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="16" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
